--- a/src/test/resources/testData/AECP_Data.xlsx.xlsx
+++ b/src/test/resources/testData/AECP_Data.xlsx.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhavi\eclipse-workspace\AECP_ProjectManagement_V1\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F152BB8-F4DA-42DC-9E7E-E3FBB5EC10DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2EDBFF-8636-41AA-97CF-9DD67CC7C1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5556" yWindow="756" windowWidth="17484" windowHeight="11484" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidLogin_Cred" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard_Navigation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -43,6 +44,36 @@
   </si>
   <si>
     <t>aecp@123</t>
+  </si>
+  <si>
+    <t>navigation links</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Engineer's</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Leave Mangement</t>
+  </si>
+  <si>
+    <t>Task Report</t>
+  </si>
+  <si>
+    <t>Request Resource</t>
   </si>
 </sst>
 </file>
@@ -373,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -424,4 +455,72 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68988F95-A7DF-45BE-8EBC-DD84B6BB1D3B}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/AECP_Data.xlsx.xlsx
+++ b/src/test/resources/testData/AECP_Data.xlsx.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhavi\eclipse-workspace\AECP_ProjectManagement_V1\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2EDBFF-8636-41AA-97CF-9DD67CC7C1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106E2A2C-409A-402F-AC3C-C06A4440D108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5556" yWindow="756" windowWidth="17484" windowHeight="11484" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5556" yWindow="756" windowWidth="17484" windowHeight="11484" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidLogin_Cred" sheetId="1" r:id="rId1"/>
     <sheet name="Dashboard_Navigation" sheetId="2" r:id="rId2"/>
+    <sheet name="Task_employee_dd" sheetId="3" r:id="rId3"/>
+    <sheet name="Task_SelectPeriod_dd" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>username</t>
   </si>
@@ -74,6 +76,48 @@
   </si>
   <si>
     <t>Request Resource</t>
+  </si>
+  <si>
+    <t>Employee dropdown</t>
+  </si>
+  <si>
+    <t>Jayamani N</t>
+  </si>
+  <si>
+    <t>Anusiya</t>
+  </si>
+  <si>
+    <t>Harish</t>
+  </si>
+  <si>
+    <t>Jyothsna</t>
+  </si>
+  <si>
+    <t>Sharath Chandra B R</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t>Dilip Kumar</t>
+  </si>
+  <si>
+    <t>Anandh</t>
+  </si>
+  <si>
+    <t>Select Period</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -97,12 +141,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,9 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -461,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68988F95-A7DF-45BE-8EBC-DD84B6BB1D3B}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -523,4 +574,111 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A3CC71-334A-4438-AF98-C60980CB4145}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921590D3-D7F9-4656-BBB4-2A44C5D30714}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>